--- a/Metadata/questionnaire ONET-ICP.xlsx
+++ b/Metadata/questionnaire ONET-ICP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$145</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="385">
   <si>
     <t>importanza</t>
   </si>
@@ -1149,6 +1149,39 @@
   </si>
   <si>
     <t>Q. N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>D22A</t>
+  </si>
+  <si>
+    <t>Fermezza braccia-mani</t>
+  </si>
+  <si>
+    <t>Arm-Hand Steadiness</t>
+  </si>
+  <si>
+    <t>D23A</t>
+  </si>
+  <si>
+    <t>Destrezza delle mani</t>
+  </si>
+  <si>
+    <t>Manual Dexterity</t>
+  </si>
+  <si>
+    <t>D24A</t>
+  </si>
+  <si>
+    <t>Destrezza delle dita</t>
+  </si>
+  <si>
+    <t>Finger Dexterity</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1239,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,6 +1256,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1506,32 +1548,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="A1:G103"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" customWidth="1"/>
-    <col min="6" max="6" width="95.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7265625" customWidth="1"/>
+    <col min="6" max="6" width="95.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>373</v>
@@ -1547,2054 +1589,2122 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="9">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>332</v>
       </c>
-      <c r="G2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" t="s">
+      <c r="G5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>334</v>
       </c>
-      <c r="G3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" t="s">
+      <c r="G6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>333</v>
       </c>
-      <c r="G4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
+      <c r="G7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" t="s">
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>336</v>
       </c>
-      <c r="G6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
+      <c r="G9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" t="s">
         <v>337</v>
       </c>
-      <c r="G7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
+      <c r="G10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>338</v>
       </c>
-      <c r="G8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" t="s">
+      <c r="G11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>339</v>
       </c>
-      <c r="G9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" t="s">
+      <c r="G12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" t="s">
+      <c r="G13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>341</v>
       </c>
-      <c r="G11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" t="s">
+      <c r="G14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>342</v>
       </c>
-      <c r="G12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" t="s">
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F16" t="s">
         <v>343</v>
       </c>
-      <c r="G13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
+      <c r="G16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>344</v>
       </c>
-      <c r="G14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" t="s">
+      <c r="G17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>345</v>
       </c>
-      <c r="G15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" t="s">
+      <c r="G18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F19" t="s">
         <v>346</v>
       </c>
-      <c r="G16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" t="s">
+      <c r="G19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>347</v>
       </c>
-      <c r="G17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" t="s">
+      <c r="G20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>348</v>
       </c>
-      <c r="G18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" t="s">
+      <c r="G21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>349</v>
       </c>
-      <c r="G19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
         <v>351</v>
       </c>
-      <c r="G20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
+      <c r="G23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>350</v>
       </c>
-      <c r="G21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" t="s">
+      <c r="G24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" t="s">
+      <c r="G25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>352</v>
       </c>
-      <c r="G23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" t="s">
+      <c r="G26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" t="s">
+      <c r="G27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>73</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>353</v>
       </c>
-      <c r="G25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" t="s">
+      <c r="G28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>354</v>
       </c>
-      <c r="G26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" t="s">
+      <c r="G29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F30" t="s">
         <v>355</v>
       </c>
-      <c r="G27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" t="s">
+      <c r="G30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F31" t="s">
         <v>356</v>
       </c>
-      <c r="G28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" t="s">
+      <c r="G31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>84</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E32" t="s">
         <v>85</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F32" t="s">
         <v>357</v>
       </c>
-      <c r="G29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" t="s">
+      <c r="G32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E33" t="s">
         <v>88</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>358</v>
       </c>
-      <c r="G30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" t="s">
+      <c r="G33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
         <v>91</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F34" t="s">
         <v>359</v>
       </c>
-      <c r="G31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" t="s">
+      <c r="G34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F35" t="s">
         <v>360</v>
       </c>
-      <c r="G32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" t="s">
+      <c r="G35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E36" t="s">
         <v>97</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36" t="s">
         <v>361</v>
       </c>
-      <c r="G33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" t="s">
+      <c r="G36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D37" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E37" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" t="s">
+      <c r="G37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>102</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" t="s">
+      <c r="G38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>105</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>362</v>
       </c>
-      <c r="G36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" t="s">
+      <c r="G39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>109</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" t="s">
         <v>363</v>
       </c>
-      <c r="G37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" t="s">
+      <c r="G40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>112</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F41" t="s">
         <v>364</v>
       </c>
-      <c r="G38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" t="s">
+      <c r="G41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>114</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" t="s">
         <v>115</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F42" t="s">
         <v>365</v>
       </c>
-      <c r="G39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" t="s">
+      <c r="G42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" t="s">
         <v>116</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>117</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E43" t="s">
         <v>118</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>366</v>
       </c>
-      <c r="G40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" t="s">
+      <c r="G43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>120</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E44" t="s">
         <v>121</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F44" t="s">
         <v>367</v>
       </c>
-      <c r="G41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" t="s">
+      <c r="G44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E45" t="s">
         <v>124</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F45" t="s">
         <v>368</v>
       </c>
-      <c r="G42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="G45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>127</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E46" t="s">
         <v>128</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F46" t="s">
         <v>279</v>
       </c>
-      <c r="G43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" t="s">
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>129</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E47" t="s">
         <v>130</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>275</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" t="s">
-        <v>277</v>
-      </c>
-      <c r="G46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" t="s">
-        <v>278</v>
       </c>
       <c r="G47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>278</v>
+      </c>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" t="s">
         <v>20</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>140</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E52" t="s">
         <v>141</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F52" t="s">
         <v>281</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" t="s">
         <v>23</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E53" t="s">
         <v>143</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>282</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" t="s">
         <v>26</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>144</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>145</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F54" t="s">
         <v>283</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>148</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>284</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" t="s">
         <v>32</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>149</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E56" t="s">
         <v>150</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F56" t="s">
         <v>285</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" t="s">
         <v>35</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>151</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E57" t="s">
         <v>152</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>153</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E58" t="s">
         <v>154</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F58" t="s">
         <v>287</v>
-      </c>
-      <c r="G55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" t="s">
-        <v>288</v>
-      </c>
-      <c r="G56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s">
-        <v>290</v>
       </c>
       <c r="G58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="7"/>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7"/>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="7"/>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7"/>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="7"/>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="7"/>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="7"/>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G65" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="7"/>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F66" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F68" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="7"/>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="7"/>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="7"/>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="7"/>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="7"/>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="7"/>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G74" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="7"/>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="7"/>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="7"/>
       <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" t="s">
+        <v>306</v>
+      </c>
+      <c r="G77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="7"/>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="7"/>
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" t="s">
+        <v>308</v>
+      </c>
+      <c r="G79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" t="s">
         <v>104</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D80" t="s">
         <v>199</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E80" t="s">
         <v>200</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F80" t="s">
         <v>310</v>
-      </c>
-      <c r="G77" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" t="s">
-        <v>201</v>
-      </c>
-      <c r="E78" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" t="s">
-        <v>311</v>
-      </c>
-      <c r="G78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" t="s">
-        <v>204</v>
-      </c>
-      <c r="F79" t="s">
-        <v>312</v>
-      </c>
-      <c r="G79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" t="s">
-        <v>206</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
       <c r="G80" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="7"/>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="7"/>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G82" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="7"/>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="7"/>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E84" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="7"/>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G85" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="7"/>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G86" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="7"/>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F87" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="7"/>
       <c r="C88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" t="s">
+        <v>322</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="7"/>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>323</v>
+      </c>
+      <c r="G89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="7"/>
+      <c r="C90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" t="s">
+        <v>225</v>
+      </c>
+      <c r="F90" t="s">
+        <v>324</v>
+      </c>
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="7"/>
+      <c r="C91" t="s">
         <v>227</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" t="s">
         <v>228</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E91" t="s">
         <v>229</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F91" t="s">
         <v>325</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="7"/>
+      <c r="C92" t="s">
         <v>230</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D92" t="s">
         <v>231</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E92" t="s">
         <v>232</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F92" t="s">
         <v>330</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G92" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="7"/>
+      <c r="C93" t="s">
         <v>234</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D93" t="s">
         <v>235</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E93" t="s">
         <v>236</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F93" t="s">
         <v>327</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G93" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="7"/>
+      <c r="C94" t="s">
         <v>238</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D94" t="s">
         <v>239</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E94" t="s">
         <v>240</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F94" t="s">
         <v>328</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G94" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="7"/>
+      <c r="C95" t="s">
         <v>241</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
         <v>242</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E95" t="s">
         <v>243</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F95" t="s">
         <v>329</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G95" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="7"/>
+      <c r="C96" t="s">
         <v>244</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D96" t="s">
         <v>245</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E96" t="s">
         <v>246</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F96" t="s">
         <v>331</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="7"/>
+      <c r="C97" t="s">
         <v>247</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" t="s">
         <v>248</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E97" t="s">
         <v>249</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F97" t="s">
         <v>316</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G97" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="7"/>
+      <c r="C98" t="s">
         <v>251</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D98" t="s">
         <v>252</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E98" t="s">
         <v>253</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G98" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="7"/>
+      <c r="C99" t="s">
         <v>254</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D99" t="s">
         <v>255</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E99" t="s">
         <v>256</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F99" t="s">
         <v>317</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G99" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="7"/>
+      <c r="C100" t="s">
         <v>257</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D100" t="s">
         <v>258</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E100" t="s">
         <v>259</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F100" t="s">
         <v>318</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="7"/>
+      <c r="C101" t="s">
         <v>261</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D101" t="s">
         <v>262</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E101" t="s">
         <v>263</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F101" t="s">
         <v>319</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G101" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="7"/>
+      <c r="C102" t="s">
         <v>264</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D102" t="s">
         <v>265</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E102" t="s">
         <v>266</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F102" t="s">
         <v>320</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G102" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="F102" s="3" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="2"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="2"/>
+      <c r="B106" s="1"/>
+      <c r="F106" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="F103" s="3" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1"/>
+      <c r="F107" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="2"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="2"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="2"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="2"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G141"/>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A42"/>
-    <mergeCell ref="B2:B42"/>
-    <mergeCell ref="B43:B99"/>
-    <mergeCell ref="A43:A99"/>
+  <autoFilter ref="B1:G145"/>
+  <mergeCells count="6">
+    <mergeCell ref="B5:B45"/>
+    <mergeCell ref="A5:A45"/>
+    <mergeCell ref="A46:A102"/>
+    <mergeCell ref="B46:B102"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2:A42" r:id="rId1" display="Work Activities"/>
+    <hyperlink ref="B5:B45" r:id="rId1" display="Work Activities"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>